--- a/data/trans_orig/IP16A11_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A11_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_menores\trans_orig\Auxiliares\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DF56BE41-D051-4197-85A2-645D9AF79FF6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EE296A6-5655-4880-A5D7-1DDA5DE53869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{A8634A6A-D761-4BE6-ABD5-C068CA86A995}"/>
+    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D18B16A3-AADD-4249-85CF-30420FB49688}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -131,6 +131,63 @@
     <t>100%</t>
   </si>
   <si>
+    <t>5/9</t>
+  </si>
+  <si>
+    <t>69,07%</t>
+  </si>
+  <si>
+    <t>57,09%</t>
+  </si>
+  <si>
+    <t>79,28%</t>
+  </si>
+  <si>
+    <t>60,36%</t>
+  </si>
+  <si>
+    <t>48,26%</t>
+  </si>
+  <si>
+    <t>71,82%</t>
+  </si>
+  <si>
+    <t>64,61%</t>
+  </si>
+  <si>
+    <t>56,85%</t>
+  </si>
+  <si>
+    <t>72,75%</t>
+  </si>
+  <si>
+    <t>30,93%</t>
+  </si>
+  <si>
+    <t>20,72%</t>
+  </si>
+  <si>
+    <t>42,91%</t>
+  </si>
+  <si>
+    <t>39,64%</t>
+  </si>
+  <si>
+    <t>28,18%</t>
+  </si>
+  <si>
+    <t>51,74%</t>
+  </si>
+  <si>
+    <t>35,39%</t>
+  </si>
+  <si>
+    <t>27,25%</t>
+  </si>
+  <si>
+    <t>43,15%</t>
+  </si>
+  <si>
     <t>10/15</t>
   </si>
   <si>
@@ -186,63 +243,6 @@
   </si>
   <si>
     <t>41,21%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
   </si>
   <si>
     <t>68,2%</t>
@@ -688,7 +688,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8ACFC705-E6A3-44A4-826B-188BA87B9F2D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090E9C2B-57A0-4A66-A4E4-D39A3D8F1036}">
   <dimension ref="A1:Q15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -961,10 +961,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>74</v>
+        <v>48</v>
       </c>
       <c r="D7" s="7">
-        <v>57191</v>
+        <v>35907</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -976,10 +976,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>59</v>
+        <v>48</v>
       </c>
       <c r="I7" s="7">
-        <v>48736</v>
+        <v>32960</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -991,10 +991,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>133</v>
+        <v>96</v>
       </c>
       <c r="N7" s="7">
-        <v>105927</v>
+        <v>68868</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1012,10 +1012,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>34</v>
+        <v>23</v>
       </c>
       <c r="D8" s="7">
-        <v>28001</v>
+        <v>16080</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1027,10 +1027,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="I8" s="7">
-        <v>26154</v>
+        <v>21643</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1042,10 +1042,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>72</v>
+        <v>55</v>
       </c>
       <c r="N8" s="7">
-        <v>54155</v>
+        <v>37722</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1063,10 +1063,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>108</v>
+        <v>71</v>
       </c>
       <c r="D9" s="7">
-        <v>85192</v>
+        <v>51987</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1078,10 +1078,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>97</v>
+        <v>80</v>
       </c>
       <c r="I9" s="7">
-        <v>74890</v>
+        <v>54603</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1093,10 +1093,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>205</v>
+        <v>151</v>
       </c>
       <c r="N9" s="7">
-        <v>160082</v>
+        <v>106590</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1116,10 +1116,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>48</v>
+        <v>74</v>
       </c>
       <c r="D10" s="7">
-        <v>35907</v>
+        <v>57191</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1131,10 +1131,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>48</v>
+        <v>59</v>
       </c>
       <c r="I10" s="7">
-        <v>32960</v>
+        <v>48736</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1146,10 +1146,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>96</v>
+        <v>133</v>
       </c>
       <c r="N10" s="7">
-        <v>68868</v>
+        <v>105927</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1167,10 +1167,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="D11" s="7">
-        <v>16080</v>
+        <v>28001</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1182,10 +1182,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="I11" s="7">
-        <v>21643</v>
+        <v>26154</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1197,10 +1197,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>55</v>
+        <v>72</v>
       </c>
       <c r="N11" s="7">
-        <v>37722</v>
+        <v>54155</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1218,10 +1218,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>71</v>
+        <v>108</v>
       </c>
       <c r="D12" s="7">
-        <v>51987</v>
+        <v>85192</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1233,10 +1233,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>80</v>
+        <v>97</v>
       </c>
       <c r="I12" s="7">
-        <v>54603</v>
+        <v>74890</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1248,10 +1248,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>151</v>
+        <v>205</v>
       </c>
       <c r="N12" s="7">
-        <v>106590</v>
+        <v>160082</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>

--- a/data/trans_orig/IP16A11_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A11_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27126"/>
-  <workbookPr defaultThemeVersion="166925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{3EE296A6-5655-4880-A5D7-1DDA5DE53869}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{881DC9B7-BA20-4645-801E-EC2342E056E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1080" yWindow="1080" windowWidth="17280" windowHeight="8880" xr2:uid="{D18B16A3-AADD-4249-85CF-30420FB49688}"/>
+    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C881A131-FD57-4CAF-8922-90DCF94A81A7}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="87">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
   <si>
     <t>Menores según si ha consumido medicinas para el dolor en 2023 (Tasa respuesta: 25,0%)</t>
   </si>
@@ -65,238 +65,298 @@
     <t>lím sup IC</t>
   </si>
   <si>
-    <t>0/4</t>
+    <t>0-2</t>
+  </si>
+  <si>
+    <t>Sí</t>
+  </si>
+  <si>
+    <t>24,19%</t>
+  </si>
+  <si>
+    <t>12,1%</t>
+  </si>
+  <si>
+    <t>40,56%</t>
+  </si>
+  <si>
+    <t>35,65%</t>
+  </si>
+  <si>
+    <t>19,4%</t>
+  </si>
+  <si>
+    <t>53,96%</t>
+  </si>
+  <si>
+    <t>29,22%</t>
+  </si>
+  <si>
+    <t>19,52%</t>
+  </si>
+  <si>
+    <t>40,99%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>69,46%</t>
-  </si>
-  <si>
-    <t>57,12%</t>
-  </si>
-  <si>
-    <t>79,3%</t>
-  </si>
-  <si>
-    <t>65,0%</t>
-  </si>
-  <si>
-    <t>49,06%</t>
-  </si>
-  <si>
-    <t>76,87%</t>
+    <t>75,81%</t>
+  </si>
+  <si>
+    <t>59,44%</t>
+  </si>
+  <si>
+    <t>87,9%</t>
+  </si>
+  <si>
+    <t>64,35%</t>
+  </si>
+  <si>
+    <t>46,04%</t>
+  </si>
+  <si>
+    <t>80,6%</t>
+  </si>
+  <si>
+    <t>70,78%</t>
+  </si>
+  <si>
+    <t>59,01%</t>
+  </si>
+  <si>
+    <t>80,48%</t>
+  </si>
+  <si>
+    <t>100%</t>
+  </si>
+  <si>
+    <t>3-7</t>
+  </si>
+  <si>
+    <t>30,74%</t>
+  </si>
+  <si>
+    <t>21,51%</t>
+  </si>
+  <si>
+    <t>42,08%</t>
+  </si>
+  <si>
+    <t>34,4%</t>
+  </si>
+  <si>
+    <t>23,46%</t>
+  </si>
+  <si>
+    <t>45,27%</t>
+  </si>
+  <si>
+    <t>32,54%</t>
+  </si>
+  <si>
+    <t>25,23%</t>
+  </si>
+  <si>
+    <t>40,54%</t>
+  </si>
+  <si>
+    <t>69,26%</t>
+  </si>
+  <si>
+    <t>57,92%</t>
+  </si>
+  <si>
+    <t>78,49%</t>
+  </si>
+  <si>
+    <t>65,6%</t>
+  </si>
+  <si>
+    <t>54,73%</t>
+  </si>
+  <si>
+    <t>76,54%</t>
+  </si>
+  <si>
+    <t>67,46%</t>
+  </si>
+  <si>
+    <t>59,46%</t>
+  </si>
+  <si>
+    <t>74,77%</t>
+  </si>
+  <si>
+    <t>8-11</t>
+  </si>
+  <si>
+    <t>33,73%</t>
+  </si>
+  <si>
+    <t>21,92%</t>
+  </si>
+  <si>
+    <t>47,57%</t>
+  </si>
+  <si>
+    <t>52,0%</t>
+  </si>
+  <si>
+    <t>37,86%</t>
+  </si>
+  <si>
+    <t>64,63%</t>
+  </si>
+  <si>
+    <t>42,11%</t>
+  </si>
+  <si>
+    <t>32,44%</t>
+  </si>
+  <si>
+    <t>51,67%</t>
+  </si>
+  <si>
+    <t>66,27%</t>
+  </si>
+  <si>
+    <t>52,43%</t>
+  </si>
+  <si>
+    <t>78,08%</t>
+  </si>
+  <si>
+    <t>48,0%</t>
+  </si>
+  <si>
+    <t>35,37%</t>
+  </si>
+  <si>
+    <t>62,14%</t>
+  </si>
+  <si>
+    <t>57,89%</t>
+  </si>
+  <si>
+    <t>48,33%</t>
   </si>
   <si>
     <t>67,56%</t>
   </si>
   <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>75,71%</t>
-  </si>
-  <si>
-    <t>Sí</t>
-  </si>
-  <si>
-    <t>30,54%</t>
-  </si>
-  <si>
-    <t>20,7%</t>
-  </si>
-  <si>
-    <t>42,88%</t>
-  </si>
-  <si>
-    <t>35,0%</t>
-  </si>
-  <si>
-    <t>23,13%</t>
-  </si>
-  <si>
-    <t>50,94%</t>
-  </si>
-  <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>24,29%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
-  </si>
-  <si>
-    <t>100%</t>
-  </si>
-  <si>
-    <t>5/9</t>
-  </si>
-  <si>
-    <t>69,07%</t>
-  </si>
-  <si>
-    <t>57,09%</t>
-  </si>
-  <si>
-    <t>79,28%</t>
-  </si>
-  <si>
-    <t>60,36%</t>
-  </si>
-  <si>
-    <t>48,26%</t>
-  </si>
-  <si>
-    <t>71,82%</t>
-  </si>
-  <si>
-    <t>64,61%</t>
-  </si>
-  <si>
-    <t>56,85%</t>
-  </si>
-  <si>
-    <t>72,75%</t>
-  </si>
-  <si>
-    <t>30,93%</t>
-  </si>
-  <si>
-    <t>20,72%</t>
-  </si>
-  <si>
-    <t>42,91%</t>
-  </si>
-  <si>
-    <t>39,64%</t>
-  </si>
-  <si>
-    <t>28,18%</t>
-  </si>
-  <si>
-    <t>51,74%</t>
-  </si>
-  <si>
-    <t>35,39%</t>
-  </si>
-  <si>
-    <t>27,25%</t>
-  </si>
-  <si>
-    <t>43,15%</t>
-  </si>
-  <si>
-    <t>10/15</t>
-  </si>
-  <si>
-    <t>67,13%</t>
-  </si>
-  <si>
-    <t>57,27%</t>
-  </si>
-  <si>
-    <t>76,32%</t>
-  </si>
-  <si>
-    <t>65,08%</t>
-  </si>
-  <si>
-    <t>54,27%</t>
-  </si>
-  <si>
-    <t>77,67%</t>
-  </si>
-  <si>
-    <t>66,17%</t>
+    <t>12-15</t>
+  </si>
+  <si>
+    <t>33,79%</t>
+  </si>
+  <si>
+    <t>22,83%</t>
+  </si>
+  <si>
+    <t>46,2%</t>
+  </si>
+  <si>
+    <t>28,74%</t>
+  </si>
+  <si>
+    <t>15,19%</t>
+  </si>
+  <si>
+    <t>41,21%</t>
+  </si>
+  <si>
+    <t>31,36%</t>
+  </si>
+  <si>
+    <t>22,4%</t>
+  </si>
+  <si>
+    <t>40,79%</t>
+  </si>
+  <si>
+    <t>66,21%</t>
+  </si>
+  <si>
+    <t>53,8%</t>
+  </si>
+  <si>
+    <t>77,17%</t>
+  </si>
+  <si>
+    <t>71,26%</t>
   </si>
   <si>
     <t>58,79%</t>
   </si>
   <si>
-    <t>74,0%</t>
-  </si>
-  <si>
-    <t>32,87%</t>
-  </si>
-  <si>
-    <t>23,68%</t>
-  </si>
-  <si>
-    <t>42,73%</t>
-  </si>
-  <si>
-    <t>34,92%</t>
-  </si>
-  <si>
-    <t>22,33%</t>
-  </si>
-  <si>
-    <t>45,73%</t>
-  </si>
-  <si>
-    <t>33,83%</t>
-  </si>
-  <si>
-    <t>26,0%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
+    <t>84,81%</t>
+  </si>
+  <si>
+    <t>68,64%</t>
+  </si>
+  <si>
+    <t>59,21%</t>
+  </si>
+  <si>
+    <t>77,6%</t>
+  </si>
+  <si>
+    <t>31,8%</t>
+  </si>
+  <si>
+    <t>25,87%</t>
+  </si>
+  <si>
+    <t>38,94%</t>
+  </si>
+  <si>
+    <t>36,58%</t>
+  </si>
+  <si>
+    <t>28,16%</t>
+  </si>
+  <si>
+    <t>43,3%</t>
+  </si>
+  <si>
+    <t>34,07%</t>
+  </si>
+  <si>
+    <t>29,18%</t>
+  </si>
+  <si>
+    <t>38,56%</t>
   </si>
   <si>
     <t>68,2%</t>
   </si>
   <si>
-    <t>61,41%</t>
-  </si>
-  <si>
-    <t>74,34%</t>
+    <t>61,06%</t>
+  </si>
+  <si>
+    <t>74,13%</t>
   </si>
   <si>
     <t>63,42%</t>
   </si>
   <si>
-    <t>56,43%</t>
-  </si>
-  <si>
-    <t>70,86%</t>
+    <t>56,7%</t>
+  </si>
+  <si>
+    <t>71,84%</t>
   </si>
   <si>
     <t>65,93%</t>
   </si>
   <si>
-    <t>61,76%</t>
-  </si>
-  <si>
-    <t>70,98%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>25,66%</t>
-  </si>
-  <si>
-    <t>38,59%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>29,14%</t>
-  </si>
-  <si>
-    <t>43,57%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>29,02%</t>
-  </si>
-  <si>
-    <t>38,24%</t>
+    <t>61,44%</t>
+  </si>
+  <si>
+    <t>70,82%</t>
+  </si>
+  <si>
+    <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
   </si>
 </sst>
 </file>
@@ -307,7 +367,7 @@
     <font>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="Aptos Narrow"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
@@ -403,39 +463,39 @@
         <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="44546A"/>
+        <a:srgbClr val="0E2841"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="E7E6E6"/>
+        <a:srgbClr val="E8E8E8"/>
       </a:lt2>
       <a:accent1>
-        <a:srgbClr val="4472C4"/>
+        <a:srgbClr val="156082"/>
       </a:accent1>
       <a:accent2>
-        <a:srgbClr val="ED7D31"/>
+        <a:srgbClr val="E97132"/>
       </a:accent2>
       <a:accent3>
-        <a:srgbClr val="A5A5A5"/>
+        <a:srgbClr val="196B24"/>
       </a:accent3>
       <a:accent4>
-        <a:srgbClr val="FFC000"/>
+        <a:srgbClr val="0F9ED5"/>
       </a:accent4>
       <a:accent5>
-        <a:srgbClr val="5B9BD5"/>
+        <a:srgbClr val="A02B93"/>
       </a:accent5>
       <a:accent6>
-        <a:srgbClr val="70AD47"/>
+        <a:srgbClr val="4EA72E"/>
       </a:accent6>
       <a:hlink>
-        <a:srgbClr val="0563C1"/>
+        <a:srgbClr val="467886"/>
       </a:hlink>
       <a:folHlink>
-        <a:srgbClr val="954F72"/>
+        <a:srgbClr val="96607D"/>
       </a:folHlink>
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Aptos Display" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -487,7 +547,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Aptos Narrow" panose="02110004020202020204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -598,13 +658,6 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
-          <a:solidFill>
-            <a:schemeClr val="phClr"/>
-          </a:solidFill>
-          <a:prstDash val="solid"/>
-          <a:miter lim="800000"/>
-        </a:ln>
         <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
@@ -613,6 +666,13 @@
           <a:miter lim="800000"/>
         </a:ln>
         <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:miter lim="800000"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -677,19 +737,39 @@
       </a:bgFillStyleLst>
     </a:fmtScheme>
   </a:themeElements>
-  <a:objectDefaults/>
+  <a:objectDefaults>
+    <a:lnDef>
+      <a:spPr/>
+      <a:bodyPr/>
+      <a:lstStyle/>
+      <a:style>
+        <a:lnRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="0">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="tx1"/>
+        </a:fontRef>
+      </a:style>
+    </a:lnDef>
+  </a:objectDefaults>
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{2E142A2C-CD16-42D6-873A-C26D2A0506FA}" vid="{1BDDFF52-6CD6-40A5-AB3C-68EB2F1E4D0A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{090E9C2B-57A0-4A66-A4E4-D39A3D8F1036}">
-  <dimension ref="A1:Q15"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F3085-075F-458D-BD85-982A5895199D}">
+  <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -806,10 +886,10 @@
         <v>10</v>
       </c>
       <c r="C4" s="7">
-        <v>49</v>
+        <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>24915</v>
+        <v>5064</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -821,10 +901,10 @@
         <v>13</v>
       </c>
       <c r="H4" s="7">
-        <v>33</v>
+        <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>17293</v>
+        <v>5829</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -836,10 +916,10 @@
         <v>16</v>
       </c>
       <c r="M4" s="7">
-        <v>82</v>
+        <v>22</v>
       </c>
       <c r="N4" s="7">
-        <v>42208</v>
+        <v>10892</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -857,10 +937,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="D5" s="7">
-        <v>10955</v>
+        <v>15871</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -872,10 +952,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="I5" s="7">
-        <v>9311</v>
+        <v>10519</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -887,10 +967,10 @@
         <v>26</v>
       </c>
       <c r="M5" s="7">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="N5" s="7">
-        <v>20266</v>
+        <v>26391</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -908,10 +988,10 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
-        <v>72</v>
+        <v>42</v>
       </c>
       <c r="D6" s="7">
-        <v>35870</v>
+        <v>20935</v>
       </c>
       <c r="E6" s="7" t="s">
         <v>30</v>
@@ -923,10 +1003,10 @@
         <v>30</v>
       </c>
       <c r="H6" s="7">
-        <v>52</v>
+        <v>31</v>
       </c>
       <c r="I6" s="7">
-        <v>26604</v>
+        <v>16348</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -938,10 +1018,10 @@
         <v>30</v>
       </c>
       <c r="M6" s="7">
-        <v>124</v>
+        <v>73</v>
       </c>
       <c r="N6" s="7">
-        <v>62474</v>
+        <v>37283</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -961,10 +1041,10 @@
         <v>10</v>
       </c>
       <c r="C7" s="7">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>35907</v>
+        <v>14141</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -976,10 +1056,10 @@
         <v>34</v>
       </c>
       <c r="H7" s="7">
-        <v>48</v>
+        <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>32960</v>
+        <v>15391</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
@@ -991,10 +1071,10 @@
         <v>37</v>
       </c>
       <c r="M7" s="7">
-        <v>96</v>
+        <v>52</v>
       </c>
       <c r="N7" s="7">
-        <v>68868</v>
+        <v>29532</v>
       </c>
       <c r="O7" s="7" t="s">
         <v>38</v>
@@ -1012,10 +1092,10 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
-        <v>23</v>
+        <v>49</v>
       </c>
       <c r="D8" s="7">
-        <v>16080</v>
+        <v>31861</v>
       </c>
       <c r="E8" s="7" t="s">
         <v>41</v>
@@ -1027,10 +1107,10 @@
         <v>43</v>
       </c>
       <c r="H8" s="7">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="I8" s="7">
-        <v>21643</v>
+        <v>29353</v>
       </c>
       <c r="J8" s="7" t="s">
         <v>44</v>
@@ -1042,10 +1122,10 @@
         <v>46</v>
       </c>
       <c r="M8" s="7">
-        <v>55</v>
+        <v>95</v>
       </c>
       <c r="N8" s="7">
-        <v>37722</v>
+        <v>61214</v>
       </c>
       <c r="O8" s="7" t="s">
         <v>47</v>
@@ -1063,10 +1143,10 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
-        <v>71</v>
+        <v>75</v>
       </c>
       <c r="D9" s="7">
-        <v>51987</v>
+        <v>46002</v>
       </c>
       <c r="E9" s="7" t="s">
         <v>30</v>
@@ -1078,10 +1158,10 @@
         <v>30</v>
       </c>
       <c r="H9" s="7">
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I9" s="7">
-        <v>54603</v>
+        <v>44744</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1093,10 +1173,10 @@
         <v>30</v>
       </c>
       <c r="M9" s="7">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>106590</v>
+        <v>90746</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1116,10 +1196,10 @@
         <v>10</v>
       </c>
       <c r="C10" s="7">
-        <v>74</v>
+        <v>17</v>
       </c>
       <c r="D10" s="7">
-        <v>57191</v>
+        <v>14701</v>
       </c>
       <c r="E10" s="7" t="s">
         <v>51</v>
@@ -1131,10 +1211,10 @@
         <v>53</v>
       </c>
       <c r="H10" s="7">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="I10" s="7">
-        <v>48736</v>
+        <v>19190</v>
       </c>
       <c r="J10" s="7" t="s">
         <v>54</v>
@@ -1146,10 +1226,10 @@
         <v>56</v>
       </c>
       <c r="M10" s="7">
-        <v>133</v>
+        <v>44</v>
       </c>
       <c r="N10" s="7">
-        <v>105927</v>
+        <v>33891</v>
       </c>
       <c r="O10" s="7" t="s">
         <v>57</v>
@@ -1167,10 +1247,10 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
-        <v>34</v>
+        <v>39</v>
       </c>
       <c r="D11" s="7">
-        <v>28001</v>
+        <v>28882</v>
       </c>
       <c r="E11" s="7" t="s">
         <v>60</v>
@@ -1182,10 +1262,10 @@
         <v>62</v>
       </c>
       <c r="H11" s="7">
-        <v>38</v>
+        <v>26</v>
       </c>
       <c r="I11" s="7">
-        <v>26154</v>
+        <v>17713</v>
       </c>
       <c r="J11" s="7" t="s">
         <v>63</v>
@@ -1197,10 +1277,10 @@
         <v>65</v>
       </c>
       <c r="M11" s="7">
-        <v>72</v>
+        <v>65</v>
       </c>
       <c r="N11" s="7">
-        <v>54155</v>
+        <v>46595</v>
       </c>
       <c r="O11" s="7" t="s">
         <v>66</v>
@@ -1218,10 +1298,10 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
-        <v>108</v>
+        <v>56</v>
       </c>
       <c r="D12" s="7">
-        <v>85192</v>
+        <v>43583</v>
       </c>
       <c r="E12" s="7" t="s">
         <v>30</v>
@@ -1233,10 +1313,10 @@
         <v>30</v>
       </c>
       <c r="H12" s="7">
-        <v>97</v>
+        <v>53</v>
       </c>
       <c r="I12" s="7">
-        <v>74890</v>
+        <v>36903</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1248,10 +1328,10 @@
         <v>30</v>
       </c>
       <c r="M12" s="7">
-        <v>205</v>
+        <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>160082</v>
+        <v>80486</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1265,55 +1345,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>3</v>
+        <v>69</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
-        <v>171</v>
+        <v>26</v>
       </c>
       <c r="D13" s="7">
-        <v>118013</v>
+        <v>21130</v>
       </c>
       <c r="E13" s="7" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="F13" s="7" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
       <c r="G13" s="7" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="H13" s="7">
-        <v>140</v>
+        <v>25</v>
       </c>
       <c r="I13" s="7">
-        <v>98990</v>
+        <v>16697</v>
       </c>
       <c r="J13" s="7" t="s">
-        <v>72</v>
+        <v>73</v>
       </c>
       <c r="K13" s="7" t="s">
-        <v>73</v>
+        <v>74</v>
       </c>
       <c r="L13" s="7" t="s">
-        <v>74</v>
+        <v>75</v>
       </c>
       <c r="M13" s="7">
-        <v>311</v>
+        <v>51</v>
       </c>
       <c r="N13" s="7">
-        <v>217003</v>
+        <v>37827</v>
       </c>
       <c r="O13" s="7" t="s">
-        <v>75</v>
+        <v>76</v>
       </c>
       <c r="P13" s="7" t="s">
-        <v>76</v>
+        <v>77</v>
       </c>
       <c r="Q13" s="7" t="s">
-        <v>77</v>
+        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1322,49 +1402,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>52</v>
+      </c>
+      <c r="D14" s="7">
+        <v>41399</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="F14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="D14" s="7">
-        <v>55036</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>78</v>
-      </c>
-      <c r="F14" s="7" t="s">
-        <v>79</v>
-      </c>
       <c r="G14" s="7" t="s">
-        <v>80</v>
+        <v>81</v>
       </c>
       <c r="H14" s="7">
-        <v>89</v>
+        <v>48</v>
       </c>
       <c r="I14" s="7">
-        <v>57108</v>
+        <v>41405</v>
       </c>
       <c r="J14" s="7" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="K14" s="7" t="s">
-        <v>82</v>
+        <v>83</v>
       </c>
       <c r="L14" s="7" t="s">
-        <v>83</v>
+        <v>84</v>
       </c>
       <c r="M14" s="7">
-        <v>169</v>
+        <v>100</v>
       </c>
       <c r="N14" s="7">
-        <v>112143</v>
+        <v>82804</v>
       </c>
       <c r="O14" s="7" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="P14" s="7" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="Q14" s="7" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1373,55 +1453,216 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>78</v>
+      </c>
+      <c r="D15" s="7">
+        <v>62529</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
+        <v>73</v>
+      </c>
+      <c r="I15" s="7">
+        <v>58102</v>
+      </c>
+      <c r="J15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M15" s="7">
+        <v>151</v>
+      </c>
+      <c r="N15" s="7">
+        <v>120631</v>
+      </c>
+      <c r="O15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q15" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A16" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="B16" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16" s="7">
+        <v>80</v>
+      </c>
+      <c r="D16" s="7">
+        <v>55036</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>89</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>90</v>
+      </c>
+      <c r="H16" s="7">
+        <v>89</v>
+      </c>
+      <c r="I16" s="7">
+        <v>57108</v>
+      </c>
+      <c r="J16" s="7" t="s">
+        <v>91</v>
+      </c>
+      <c r="K16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="L16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="M16" s="7">
+        <v>169</v>
+      </c>
+      <c r="N16" s="7">
+        <v>112143</v>
+      </c>
+      <c r="O16" s="7" t="s">
+        <v>94</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q16" s="7" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="5" t="s">
+        <v>20</v>
+      </c>
+      <c r="C17" s="7">
+        <v>171</v>
+      </c>
+      <c r="D17" s="7">
+        <v>118013</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>98</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>99</v>
+      </c>
+      <c r="H17" s="7">
+        <v>140</v>
+      </c>
+      <c r="I17" s="7">
+        <v>98990</v>
+      </c>
+      <c r="J17" s="7" t="s">
+        <v>100</v>
+      </c>
+      <c r="K17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="L17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="M17" s="7">
+        <v>311</v>
+      </c>
+      <c r="N17" s="7">
+        <v>217003</v>
+      </c>
+      <c r="O17" s="7" t="s">
+        <v>103</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q17" s="7" t="s">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="C18" s="7">
         <v>251</v>
       </c>
-      <c r="D15" s="7">
+      <c r="D18" s="7">
         <v>173049</v>
       </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>229</v>
       </c>
-      <c r="I15" s="7">
+      <c r="I18" s="7">
         <v>156098</v>
       </c>
-      <c r="J15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="K15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="L15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="M15" s="7">
+      <c r="J18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="K18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="L18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="M18" s="7">
         <v>480</v>
       </c>
-      <c r="N15" s="7">
+      <c r="N18" s="7">
         <v>329146</v>
       </c>
-      <c r="O15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="P15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Q15" s="7" t="s">
-        <v>30</v>
+      <c r="O18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="P18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q18" s="7" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>106</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
+  <mergeCells count="9">
     <mergeCell ref="A10:A12"/>
     <mergeCell ref="A13:A15"/>
+    <mergeCell ref="A16:A18"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="C1:G1"/>
     <mergeCell ref="H1:L1"/>

--- a/data/trans_orig/IP16A11_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A11_2023-Edad-trans_orig.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{881DC9B7-BA20-4645-801E-EC2342E056E0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{19065C72-4B20-4B7A-A891-C05676725407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1536" yWindow="1536" windowWidth="17280" windowHeight="8880" xr2:uid="{C881A131-FD57-4CAF-8922-90DCF94A81A7}"/>
+    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{840EC591-6627-4EAF-ABD8-B5DDF41169BA}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -74,28 +74,28 @@
     <t>24,19%</t>
   </si>
   <si>
-    <t>12,1%</t>
-  </si>
-  <si>
-    <t>40,56%</t>
+    <t>12,41%</t>
+  </si>
+  <si>
+    <t>39,29%</t>
   </si>
   <si>
     <t>35,65%</t>
   </si>
   <si>
-    <t>19,4%</t>
-  </si>
-  <si>
-    <t>53,96%</t>
+    <t>20,1%</t>
+  </si>
+  <si>
+    <t>54,65%</t>
   </si>
   <si>
     <t>29,22%</t>
   </si>
   <si>
-    <t>19,52%</t>
-  </si>
-  <si>
-    <t>40,99%</t>
+    <t>19,32%</t>
+  </si>
+  <si>
+    <t>41,37%</t>
   </si>
   <si>
     <t>No</t>
@@ -104,28 +104,28 @@
     <t>75,81%</t>
   </si>
   <si>
-    <t>59,44%</t>
-  </si>
-  <si>
-    <t>87,9%</t>
+    <t>60,71%</t>
+  </si>
+  <si>
+    <t>87,59%</t>
   </si>
   <si>
     <t>64,35%</t>
   </si>
   <si>
-    <t>46,04%</t>
-  </si>
-  <si>
-    <t>80,6%</t>
+    <t>45,35%</t>
+  </si>
+  <si>
+    <t>79,9%</t>
   </si>
   <si>
     <t>70,78%</t>
   </si>
   <si>
-    <t>59,01%</t>
-  </si>
-  <si>
-    <t>80,48%</t>
+    <t>58,63%</t>
+  </si>
+  <si>
+    <t>80,68%</t>
   </si>
   <si>
     <t>100%</t>
@@ -137,55 +137,55 @@
     <t>30,74%</t>
   </si>
   <si>
-    <t>21,51%</t>
-  </si>
-  <si>
-    <t>42,08%</t>
+    <t>20,59%</t>
+  </si>
+  <si>
+    <t>42,82%</t>
   </si>
   <si>
     <t>34,4%</t>
   </si>
   <si>
-    <t>23,46%</t>
-  </si>
-  <si>
-    <t>45,27%</t>
+    <t>23,24%</t>
+  </si>
+  <si>
+    <t>46,74%</t>
   </si>
   <si>
     <t>32,54%</t>
   </si>
   <si>
-    <t>25,23%</t>
-  </si>
-  <si>
-    <t>40,54%</t>
+    <t>24,64%</t>
+  </si>
+  <si>
+    <t>41,14%</t>
   </si>
   <si>
     <t>69,26%</t>
   </si>
   <si>
-    <t>57,92%</t>
-  </si>
-  <si>
-    <t>78,49%</t>
+    <t>57,18%</t>
+  </si>
+  <si>
+    <t>79,41%</t>
   </si>
   <si>
     <t>65,6%</t>
   </si>
   <si>
-    <t>54,73%</t>
-  </si>
-  <si>
-    <t>76,54%</t>
+    <t>53,26%</t>
+  </si>
+  <si>
+    <t>76,76%</t>
   </si>
   <si>
     <t>67,46%</t>
   </si>
   <si>
-    <t>59,46%</t>
-  </si>
-  <si>
-    <t>74,77%</t>
+    <t>58,86%</t>
+  </si>
+  <si>
+    <t>75,36%</t>
   </si>
   <si>
     <t>8-11</t>
@@ -194,55 +194,55 @@
     <t>33,73%</t>
   </si>
   <si>
-    <t>21,92%</t>
-  </si>
-  <si>
-    <t>47,57%</t>
+    <t>21,3%</t>
+  </si>
+  <si>
+    <t>47,38%</t>
   </si>
   <si>
     <t>52,0%</t>
   </si>
   <si>
-    <t>37,86%</t>
-  </si>
-  <si>
-    <t>64,63%</t>
+    <t>38,5%</t>
+  </si>
+  <si>
+    <t>65,05%</t>
   </si>
   <si>
     <t>42,11%</t>
   </si>
   <si>
-    <t>32,44%</t>
-  </si>
-  <si>
-    <t>51,67%</t>
+    <t>32,81%</t>
+  </si>
+  <si>
+    <t>51,85%</t>
   </si>
   <si>
     <t>66,27%</t>
   </si>
   <si>
-    <t>52,43%</t>
-  </si>
-  <si>
-    <t>78,08%</t>
+    <t>52,62%</t>
+  </si>
+  <si>
+    <t>78,7%</t>
   </si>
   <si>
     <t>48,0%</t>
   </si>
   <si>
-    <t>35,37%</t>
-  </si>
-  <si>
-    <t>62,14%</t>
+    <t>34,95%</t>
+  </si>
+  <si>
+    <t>61,5%</t>
   </si>
   <si>
     <t>57,89%</t>
   </si>
   <si>
-    <t>48,33%</t>
-  </si>
-  <si>
-    <t>67,56%</t>
+    <t>48,15%</t>
+  </si>
+  <si>
+    <t>67,19%</t>
   </si>
   <si>
     <t>12-15</t>
@@ -251,109 +251,109 @@
     <t>33,79%</t>
   </si>
   <si>
-    <t>22,83%</t>
-  </si>
-  <si>
-    <t>46,2%</t>
+    <t>22,93%</t>
+  </si>
+  <si>
+    <t>46,71%</t>
   </si>
   <si>
     <t>28,74%</t>
   </si>
   <si>
-    <t>15,19%</t>
-  </si>
-  <si>
-    <t>41,21%</t>
+    <t>17,45%</t>
+  </si>
+  <si>
+    <t>42,18%</t>
   </si>
   <si>
     <t>31,36%</t>
   </si>
   <si>
-    <t>22,4%</t>
-  </si>
-  <si>
-    <t>40,79%</t>
+    <t>22,57%</t>
+  </si>
+  <si>
+    <t>40,78%</t>
   </si>
   <si>
     <t>66,21%</t>
   </si>
   <si>
-    <t>53,8%</t>
-  </si>
-  <si>
-    <t>77,17%</t>
+    <t>53,29%</t>
+  </si>
+  <si>
+    <t>77,07%</t>
   </si>
   <si>
     <t>71,26%</t>
   </si>
   <si>
-    <t>58,79%</t>
-  </si>
-  <si>
-    <t>84,81%</t>
+    <t>57,82%</t>
+  </si>
+  <si>
+    <t>82,55%</t>
   </si>
   <si>
     <t>68,64%</t>
   </si>
   <si>
-    <t>59,21%</t>
-  </si>
-  <si>
-    <t>77,6%</t>
+    <t>59,22%</t>
+  </si>
+  <si>
+    <t>77,43%</t>
   </si>
   <si>
     <t>31,8%</t>
   </si>
   <si>
-    <t>25,87%</t>
-  </si>
-  <si>
-    <t>38,94%</t>
+    <t>26,08%</t>
+  </si>
+  <si>
+    <t>38,0%</t>
   </si>
   <si>
     <t>36,58%</t>
   </si>
   <si>
-    <t>28,16%</t>
-  </si>
-  <si>
-    <t>43,3%</t>
+    <t>29,28%</t>
+  </si>
+  <si>
+    <t>44,19%</t>
   </si>
   <si>
     <t>34,07%</t>
   </si>
   <si>
-    <t>29,18%</t>
-  </si>
-  <si>
-    <t>38,56%</t>
+    <t>29,35%</t>
+  </si>
+  <si>
+    <t>38,91%</t>
   </si>
   <si>
     <t>68,2%</t>
   </si>
   <si>
-    <t>61,06%</t>
-  </si>
-  <si>
-    <t>74,13%</t>
+    <t>62,0%</t>
+  </si>
+  <si>
+    <t>73,92%</t>
   </si>
   <si>
     <t>63,42%</t>
   </si>
   <si>
-    <t>56,7%</t>
-  </si>
-  <si>
-    <t>71,84%</t>
+    <t>55,81%</t>
+  </si>
+  <si>
+    <t>70,72%</t>
   </si>
   <si>
     <t>65,93%</t>
   </si>
   <si>
-    <t>61,44%</t>
-  </si>
-  <si>
-    <t>70,82%</t>
+    <t>61,09%</t>
+  </si>
+  <si>
+    <t>70,65%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -768,7 +768,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9A9F3085-075F-458D-BD85-982A5895199D}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5676B00D-1A0D-4C6B-96C9-C5A5C2C32619}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">

--- a/data/trans_orig/IP16A11_2023-Edad-trans_orig.xlsx
+++ b/data/trans_orig/IP16A11_2023-Edad-trans_orig.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27531"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Usuario\Documents\Resultados_EAS_menores\trans_orig\Auxiliares\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{19065C72-4B20-4B7A-A891-C05676725407}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{CBE199B4-5D4A-4411-B6A8-055B2964B1C6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="2232" yWindow="2232" windowWidth="17280" windowHeight="8880" xr2:uid="{840EC591-6627-4EAF-ABD8-B5DDF41169BA}"/>
+    <workbookView xWindow="2688" yWindow="2688" windowWidth="17280" windowHeight="8880" xr2:uid="{A51E5729-2BE4-4554-94E5-9FBA8AAAA2C2}"/>
   </bookViews>
   <sheets>
     <sheet name="2023" sheetId="2" r:id="rId1"/>
@@ -36,15 +36,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="107">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="105">
   <si>
     <t>Menores según si ha consumido medicinas para el dolor en 2023 (Tasa respuesta: 25,0%)</t>
   </si>
   <si>
-    <t>Hombre</t>
-  </si>
-  <si>
-    <t>Mujer</t>
+    <t>Niña</t>
+  </si>
+  <si>
+    <t>Niño</t>
   </si>
   <si>
     <t>Total</t>
@@ -71,61 +71,61 @@
     <t>Sí</t>
   </si>
   <si>
-    <t>24,19%</t>
-  </si>
-  <si>
-    <t>12,41%</t>
-  </si>
-  <si>
-    <t>39,29%</t>
-  </si>
-  <si>
-    <t>35,65%</t>
-  </si>
-  <si>
-    <t>20,1%</t>
-  </si>
-  <si>
-    <t>54,65%</t>
-  </si>
-  <si>
-    <t>29,22%</t>
-  </si>
-  <si>
-    <t>19,32%</t>
-  </si>
-  <si>
-    <t>41,37%</t>
+    <t>36,07%</t>
+  </si>
+  <si>
+    <t>20,51%</t>
+  </si>
+  <si>
+    <t>54,01%</t>
+  </si>
+  <si>
+    <t>23,52%</t>
+  </si>
+  <si>
+    <t>12,54%</t>
+  </si>
+  <si>
+    <t>39,72%</t>
+  </si>
+  <si>
+    <t>28,83%</t>
+  </si>
+  <si>
+    <t>19,46%</t>
+  </si>
+  <si>
+    <t>39,96%</t>
   </si>
   <si>
     <t>No</t>
   </si>
   <si>
-    <t>75,81%</t>
-  </si>
-  <si>
-    <t>60,71%</t>
-  </si>
-  <si>
-    <t>87,59%</t>
-  </si>
-  <si>
-    <t>64,35%</t>
-  </si>
-  <si>
-    <t>45,35%</t>
-  </si>
-  <si>
-    <t>79,9%</t>
-  </si>
-  <si>
-    <t>70,78%</t>
-  </si>
-  <si>
-    <t>58,63%</t>
-  </si>
-  <si>
-    <t>80,68%</t>
+    <t>63,93%</t>
+  </si>
+  <si>
+    <t>45,99%</t>
+  </si>
+  <si>
+    <t>79,49%</t>
+  </si>
+  <si>
+    <t>76,48%</t>
+  </si>
+  <si>
+    <t>60,28%</t>
+  </si>
+  <si>
+    <t>87,46%</t>
+  </si>
+  <si>
+    <t>71,17%</t>
+  </si>
+  <si>
+    <t>60,04%</t>
+  </si>
+  <si>
+    <t>80,54%</t>
   </si>
   <si>
     <t>100%</t>
@@ -134,226 +134,220 @@
     <t>3-7</t>
   </si>
   <si>
-    <t>30,74%</t>
-  </si>
-  <si>
-    <t>20,59%</t>
-  </si>
-  <si>
-    <t>42,82%</t>
-  </si>
-  <si>
-    <t>34,4%</t>
-  </si>
-  <si>
-    <t>23,24%</t>
-  </si>
-  <si>
-    <t>46,74%</t>
-  </si>
-  <si>
-    <t>32,54%</t>
-  </si>
-  <si>
-    <t>24,64%</t>
-  </si>
-  <si>
-    <t>41,14%</t>
-  </si>
-  <si>
-    <t>69,26%</t>
-  </si>
-  <si>
-    <t>57,18%</t>
-  </si>
-  <si>
-    <t>79,41%</t>
-  </si>
-  <si>
-    <t>65,6%</t>
-  </si>
-  <si>
-    <t>53,26%</t>
-  </si>
-  <si>
-    <t>76,76%</t>
-  </si>
-  <si>
-    <t>67,46%</t>
-  </si>
-  <si>
-    <t>58,86%</t>
-  </si>
-  <si>
-    <t>75,36%</t>
+    <t>33,41%</t>
+  </si>
+  <si>
+    <t>22,79%</t>
+  </si>
+  <si>
+    <t>45,98%</t>
+  </si>
+  <si>
+    <t>31,01%</t>
+  </si>
+  <si>
+    <t>43,2%</t>
+  </si>
+  <si>
+    <t>32,18%</t>
+  </si>
+  <si>
+    <t>24,43%</t>
+  </si>
+  <si>
+    <t>40,29%</t>
+  </si>
+  <si>
+    <t>66,59%</t>
+  </si>
+  <si>
+    <t>54,02%</t>
+  </si>
+  <si>
+    <t>77,21%</t>
+  </si>
+  <si>
+    <t>68,99%</t>
+  </si>
+  <si>
+    <t>56,8%</t>
+  </si>
+  <si>
+    <t>67,82%</t>
+  </si>
+  <si>
+    <t>59,71%</t>
+  </si>
+  <si>
+    <t>75,57%</t>
   </si>
   <si>
     <t>8-11</t>
   </si>
   <si>
-    <t>33,73%</t>
-  </si>
-  <si>
-    <t>21,3%</t>
-  </si>
-  <si>
-    <t>47,38%</t>
-  </si>
-  <si>
-    <t>52,0%</t>
-  </si>
-  <si>
-    <t>38,5%</t>
-  </si>
-  <si>
-    <t>65,05%</t>
-  </si>
-  <si>
-    <t>42,11%</t>
-  </si>
-  <si>
-    <t>32,81%</t>
-  </si>
-  <si>
-    <t>51,85%</t>
-  </si>
-  <si>
-    <t>66,27%</t>
-  </si>
-  <si>
-    <t>52,62%</t>
-  </si>
-  <si>
-    <t>78,7%</t>
-  </si>
-  <si>
-    <t>48,0%</t>
-  </si>
-  <si>
-    <t>34,95%</t>
-  </si>
-  <si>
-    <t>61,5%</t>
-  </si>
-  <si>
-    <t>57,89%</t>
-  </si>
-  <si>
-    <t>48,15%</t>
-  </si>
-  <si>
-    <t>67,19%</t>
+    <t>50,85%</t>
+  </si>
+  <si>
+    <t>36,24%</t>
+  </si>
+  <si>
+    <t>63,58%</t>
+  </si>
+  <si>
+    <t>33,87%</t>
+  </si>
+  <si>
+    <t>22,52%</t>
+  </si>
+  <si>
+    <t>47,24%</t>
+  </si>
+  <si>
+    <t>41,44%</t>
+  </si>
+  <si>
+    <t>31,12%</t>
+  </si>
+  <si>
+    <t>51,22%</t>
+  </si>
+  <si>
+    <t>49,15%</t>
+  </si>
+  <si>
+    <t>36,42%</t>
+  </si>
+  <si>
+    <t>63,76%</t>
+  </si>
+  <si>
+    <t>66,13%</t>
+  </si>
+  <si>
+    <t>52,76%</t>
+  </si>
+  <si>
+    <t>77,48%</t>
+  </si>
+  <si>
+    <t>58,56%</t>
+  </si>
+  <si>
+    <t>48,78%</t>
+  </si>
+  <si>
+    <t>68,88%</t>
   </si>
   <si>
     <t>12-15</t>
   </si>
   <si>
-    <t>33,79%</t>
-  </si>
-  <si>
-    <t>22,93%</t>
-  </si>
-  <si>
-    <t>46,71%</t>
-  </si>
-  <si>
-    <t>28,74%</t>
-  </si>
-  <si>
-    <t>17,45%</t>
-  </si>
-  <si>
-    <t>42,18%</t>
-  </si>
-  <si>
-    <t>31,36%</t>
-  </si>
-  <si>
-    <t>22,57%</t>
-  </si>
-  <si>
-    <t>40,78%</t>
-  </si>
-  <si>
-    <t>66,21%</t>
-  </si>
-  <si>
-    <t>53,29%</t>
-  </si>
-  <si>
-    <t>77,07%</t>
-  </si>
-  <si>
-    <t>71,26%</t>
-  </si>
-  <si>
-    <t>57,82%</t>
-  </si>
-  <si>
-    <t>82,55%</t>
-  </si>
-  <si>
-    <t>68,64%</t>
-  </si>
-  <si>
-    <t>59,22%</t>
-  </si>
-  <si>
-    <t>77,43%</t>
-  </si>
-  <si>
-    <t>31,8%</t>
-  </si>
-  <si>
-    <t>26,08%</t>
-  </si>
-  <si>
-    <t>38,0%</t>
-  </si>
-  <si>
-    <t>36,58%</t>
-  </si>
-  <si>
-    <t>29,28%</t>
-  </si>
-  <si>
-    <t>44,19%</t>
-  </si>
-  <si>
-    <t>34,07%</t>
-  </si>
-  <si>
-    <t>29,35%</t>
-  </si>
-  <si>
-    <t>38,91%</t>
-  </si>
-  <si>
-    <t>68,2%</t>
-  </si>
-  <si>
-    <t>62,0%</t>
-  </si>
-  <si>
-    <t>73,92%</t>
-  </si>
-  <si>
-    <t>63,42%</t>
-  </si>
-  <si>
-    <t>55,81%</t>
-  </si>
-  <si>
-    <t>70,72%</t>
-  </si>
-  <si>
-    <t>65,93%</t>
-  </si>
-  <si>
-    <t>61,09%</t>
-  </si>
-  <si>
-    <t>70,65%</t>
+    <t>20,99%</t>
+  </si>
+  <si>
+    <t>7,61%</t>
+  </si>
+  <si>
+    <t>38,03%</t>
+  </si>
+  <si>
+    <t>34,48%</t>
+  </si>
+  <si>
+    <t>22,64%</t>
+  </si>
+  <si>
+    <t>47,08%</t>
+  </si>
+  <si>
+    <t>27,09%</t>
+  </si>
+  <si>
+    <t>14,13%</t>
+  </si>
+  <si>
+    <t>37,26%</t>
+  </si>
+  <si>
+    <t>79,01%</t>
+  </si>
+  <si>
+    <t>61,97%</t>
+  </si>
+  <si>
+    <t>92,39%</t>
+  </si>
+  <si>
+    <t>65,52%</t>
+  </si>
+  <si>
+    <t>52,92%</t>
+  </si>
+  <si>
+    <t>77,36%</t>
+  </si>
+  <si>
+    <t>72,91%</t>
+  </si>
+  <si>
+    <t>62,74%</t>
+  </si>
+  <si>
+    <t>85,87%</t>
+  </si>
+  <si>
+    <t>31,78%</t>
+  </si>
+  <si>
+    <t>19,31%</t>
+  </si>
+  <si>
+    <t>40,24%</t>
+  </si>
+  <si>
+    <t>32,06%</t>
+  </si>
+  <si>
+    <t>25,86%</t>
+  </si>
+  <si>
+    <t>39,1%</t>
+  </si>
+  <si>
+    <t>31,92%</t>
+  </si>
+  <si>
+    <t>24,16%</t>
+  </si>
+  <si>
+    <t>36,15%</t>
+  </si>
+  <si>
+    <t>68,22%</t>
+  </si>
+  <si>
+    <t>59,76%</t>
+  </si>
+  <si>
+    <t>80,69%</t>
+  </si>
+  <si>
+    <t>67,94%</t>
+  </si>
+  <si>
+    <t>60,9%</t>
+  </si>
+  <si>
+    <t>74,14%</t>
+  </si>
+  <si>
+    <t>68,08%</t>
+  </si>
+  <si>
+    <t>63,85%</t>
+  </si>
+  <si>
+    <t>75,84%</t>
   </si>
   <si>
     <t>Fuente: Encuesta Andaluza de Salud (menores)</t>
@@ -768,7 +762,7 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5676B00D-1A0D-4C6B-96C9-C5A5C2C32619}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00602C2F-8DD2-4246-B38A-3C27C837D854}">
   <dimension ref="A1:Q19"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
@@ -889,7 +883,7 @@
         <v>11</v>
       </c>
       <c r="D4" s="7">
-        <v>5064</v>
+        <v>5913</v>
       </c>
       <c r="E4" s="7" t="s">
         <v>11</v>
@@ -904,7 +898,7 @@
         <v>11</v>
       </c>
       <c r="I4" s="7">
-        <v>5829</v>
+        <v>5258</v>
       </c>
       <c r="J4" s="7" t="s">
         <v>14</v>
@@ -919,7 +913,7 @@
         <v>22</v>
       </c>
       <c r="N4" s="7">
-        <v>10892</v>
+        <v>11171</v>
       </c>
       <c r="O4" s="7" t="s">
         <v>17</v>
@@ -937,10 +931,10 @@
         <v>20</v>
       </c>
       <c r="C5" s="7">
-        <v>31</v>
+        <v>20</v>
       </c>
       <c r="D5" s="7">
-        <v>15871</v>
+        <v>10478</v>
       </c>
       <c r="E5" s="7" t="s">
         <v>21</v>
@@ -952,10 +946,10 @@
         <v>23</v>
       </c>
       <c r="H5" s="7">
-        <v>20</v>
+        <v>31</v>
       </c>
       <c r="I5" s="7">
-        <v>10519</v>
+        <v>17099</v>
       </c>
       <c r="J5" s="7" t="s">
         <v>24</v>
@@ -970,7 +964,7 @@
         <v>51</v>
       </c>
       <c r="N5" s="7">
-        <v>26391</v>
+        <v>27577</v>
       </c>
       <c r="O5" s="7" t="s">
         <v>27</v>
@@ -988,25 +982,25 @@
         <v>3</v>
       </c>
       <c r="C6" s="7">
+        <v>31</v>
+      </c>
+      <c r="D6" s="7">
+        <v>16391</v>
+      </c>
+      <c r="E6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G6" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H6" s="7">
         <v>42</v>
       </c>
-      <c r="D6" s="7">
-        <v>20935</v>
-      </c>
-      <c r="E6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G6" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H6" s="7">
-        <v>31</v>
-      </c>
       <c r="I6" s="7">
-        <v>16348</v>
+        <v>22357</v>
       </c>
       <c r="J6" s="7" t="s">
         <v>30</v>
@@ -1021,7 +1015,7 @@
         <v>73</v>
       </c>
       <c r="N6" s="7">
-        <v>37283</v>
+        <v>38748</v>
       </c>
       <c r="O6" s="7" t="s">
         <v>30</v>
@@ -1044,7 +1038,7 @@
         <v>26</v>
       </c>
       <c r="D7" s="7">
-        <v>14141</v>
+        <v>15578</v>
       </c>
       <c r="E7" s="7" t="s">
         <v>32</v>
@@ -1059,31 +1053,31 @@
         <v>26</v>
       </c>
       <c r="I7" s="7">
-        <v>15391</v>
+        <v>15190</v>
       </c>
       <c r="J7" s="7" t="s">
         <v>35</v>
       </c>
       <c r="K7" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="L7" s="7" t="s">
         <v>36</v>
-      </c>
-      <c r="L7" s="7" t="s">
-        <v>37</v>
       </c>
       <c r="M7" s="7">
         <v>52</v>
       </c>
       <c r="N7" s="7">
-        <v>29532</v>
+        <v>30767</v>
       </c>
       <c r="O7" s="7" t="s">
+        <v>37</v>
+      </c>
+      <c r="P7" s="7" t="s">
         <v>38</v>
       </c>
-      <c r="P7" s="7" t="s">
+      <c r="Q7" s="7" t="s">
         <v>39</v>
-      </c>
-      <c r="Q7" s="7" t="s">
-        <v>40</v>
       </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.3">
@@ -1092,49 +1086,49 @@
         <v>20</v>
       </c>
       <c r="C8" s="7">
+        <v>46</v>
+      </c>
+      <c r="D8" s="7">
+        <v>31045</v>
+      </c>
+      <c r="E8" s="7" t="s">
+        <v>40</v>
+      </c>
+      <c r="F8" s="7" t="s">
+        <v>41</v>
+      </c>
+      <c r="G8" s="7" t="s">
+        <v>42</v>
+      </c>
+      <c r="H8" s="7">
         <v>49</v>
       </c>
-      <c r="D8" s="7">
-        <v>31861</v>
-      </c>
-      <c r="E8" s="7" t="s">
-        <v>41</v>
-      </c>
-      <c r="F8" s="7" t="s">
-        <v>42</v>
-      </c>
-      <c r="G8" s="7" t="s">
+      <c r="I8" s="7">
+        <v>33794</v>
+      </c>
+      <c r="J8" s="7" t="s">
         <v>43</v>
       </c>
-      <c r="H8" s="7">
-        <v>46</v>
-      </c>
-      <c r="I8" s="7">
-        <v>29353</v>
-      </c>
-      <c r="J8" s="7" t="s">
+      <c r="K8" s="7" t="s">
         <v>44</v>
       </c>
-      <c r="K8" s="7" t="s">
-        <v>45</v>
-      </c>
       <c r="L8" s="7" t="s">
-        <v>46</v>
+        <v>23</v>
       </c>
       <c r="M8" s="7">
         <v>95</v>
       </c>
       <c r="N8" s="7">
-        <v>61214</v>
+        <v>64840</v>
       </c>
       <c r="O8" s="7" t="s">
+        <v>45</v>
+      </c>
+      <c r="P8" s="7" t="s">
+        <v>46</v>
+      </c>
+      <c r="Q8" s="7" t="s">
         <v>47</v>
-      </c>
-      <c r="P8" s="7" t="s">
-        <v>48</v>
-      </c>
-      <c r="Q8" s="7" t="s">
-        <v>49</v>
       </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.3">
@@ -1143,25 +1137,25 @@
         <v>3</v>
       </c>
       <c r="C9" s="7">
+        <v>72</v>
+      </c>
+      <c r="D9" s="7">
+        <v>46623</v>
+      </c>
+      <c r="E9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G9" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H9" s="7">
         <v>75</v>
       </c>
-      <c r="D9" s="7">
-        <v>46002</v>
-      </c>
-      <c r="E9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G9" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H9" s="7">
-        <v>72</v>
-      </c>
       <c r="I9" s="7">
-        <v>44744</v>
+        <v>48984</v>
       </c>
       <c r="J9" s="7" t="s">
         <v>30</v>
@@ -1176,7 +1170,7 @@
         <v>147</v>
       </c>
       <c r="N9" s="7">
-        <v>90746</v>
+        <v>95607</v>
       </c>
       <c r="O9" s="7" t="s">
         <v>30</v>
@@ -1190,55 +1184,55 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" s="1" t="s">
-        <v>50</v>
+        <v>48</v>
       </c>
       <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="7">
+        <v>27</v>
+      </c>
+      <c r="D10" s="7">
+        <v>18890</v>
+      </c>
+      <c r="E10" s="7" t="s">
+        <v>49</v>
+      </c>
+      <c r="F10" s="7" t="s">
+        <v>50</v>
+      </c>
+      <c r="G10" s="7" t="s">
+        <v>51</v>
+      </c>
+      <c r="H10" s="7">
         <v>17</v>
       </c>
-      <c r="D10" s="7">
-        <v>14701</v>
-      </c>
-      <c r="E10" s="7" t="s">
-        <v>51</v>
-      </c>
-      <c r="F10" s="7" t="s">
+      <c r="I10" s="7">
+        <v>15638</v>
+      </c>
+      <c r="J10" s="7" t="s">
         <v>52</v>
       </c>
-      <c r="G10" s="7" t="s">
+      <c r="K10" s="7" t="s">
         <v>53</v>
       </c>
-      <c r="H10" s="7">
-        <v>27</v>
-      </c>
-      <c r="I10" s="7">
-        <v>19190</v>
-      </c>
-      <c r="J10" s="7" t="s">
+      <c r="L10" s="7" t="s">
         <v>54</v>
-      </c>
-      <c r="K10" s="7" t="s">
-        <v>55</v>
-      </c>
-      <c r="L10" s="7" t="s">
-        <v>56</v>
       </c>
       <c r="M10" s="7">
         <v>44</v>
       </c>
       <c r="N10" s="7">
-        <v>33891</v>
+        <v>34528</v>
       </c>
       <c r="O10" s="7" t="s">
+        <v>55</v>
+      </c>
+      <c r="P10" s="7" t="s">
+        <v>56</v>
+      </c>
+      <c r="Q10" s="7" t="s">
         <v>57</v>
-      </c>
-      <c r="P10" s="7" t="s">
-        <v>58</v>
-      </c>
-      <c r="Q10" s="7" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.3">
@@ -1247,49 +1241,49 @@
         <v>20</v>
       </c>
       <c r="C11" s="7">
+        <v>26</v>
+      </c>
+      <c r="D11" s="7">
+        <v>18261</v>
+      </c>
+      <c r="E11" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="F11" s="7" t="s">
+        <v>59</v>
+      </c>
+      <c r="G11" s="7" t="s">
+        <v>60</v>
+      </c>
+      <c r="H11" s="7">
         <v>39</v>
       </c>
-      <c r="D11" s="7">
-        <v>28882</v>
-      </c>
-      <c r="E11" s="7" t="s">
-        <v>60</v>
-      </c>
-      <c r="F11" s="7" t="s">
+      <c r="I11" s="7">
+        <v>30531</v>
+      </c>
+      <c r="J11" s="7" t="s">
         <v>61</v>
       </c>
-      <c r="G11" s="7" t="s">
+      <c r="K11" s="7" t="s">
         <v>62</v>
       </c>
-      <c r="H11" s="7">
-        <v>26</v>
-      </c>
-      <c r="I11" s="7">
-        <v>17713</v>
-      </c>
-      <c r="J11" s="7" t="s">
+      <c r="L11" s="7" t="s">
         <v>63</v>
-      </c>
-      <c r="K11" s="7" t="s">
-        <v>64</v>
-      </c>
-      <c r="L11" s="7" t="s">
-        <v>65</v>
       </c>
       <c r="M11" s="7">
         <v>65</v>
       </c>
       <c r="N11" s="7">
-        <v>46595</v>
+        <v>48792</v>
       </c>
       <c r="O11" s="7" t="s">
+        <v>64</v>
+      </c>
+      <c r="P11" s="7" t="s">
+        <v>65</v>
+      </c>
+      <c r="Q11" s="7" t="s">
         <v>66</v>
-      </c>
-      <c r="P11" s="7" t="s">
-        <v>67</v>
-      </c>
-      <c r="Q11" s="7" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.3">
@@ -1298,25 +1292,25 @@
         <v>3</v>
       </c>
       <c r="C12" s="7">
+        <v>53</v>
+      </c>
+      <c r="D12" s="7">
+        <v>37151</v>
+      </c>
+      <c r="E12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G12" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H12" s="7">
         <v>56</v>
       </c>
-      <c r="D12" s="7">
-        <v>43583</v>
-      </c>
-      <c r="E12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G12" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H12" s="7">
-        <v>53</v>
-      </c>
       <c r="I12" s="7">
-        <v>36903</v>
+        <v>46169</v>
       </c>
       <c r="J12" s="7" t="s">
         <v>30</v>
@@ -1331,7 +1325,7 @@
         <v>109</v>
       </c>
       <c r="N12" s="7">
-        <v>80486</v>
+        <v>83320</v>
       </c>
       <c r="O12" s="7" t="s">
         <v>30</v>
@@ -1345,55 +1339,55 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" s="1" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="B13" s="5" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="7">
+        <v>25</v>
+      </c>
+      <c r="D13" s="7">
+        <v>16625</v>
+      </c>
+      <c r="E13" s="7" t="s">
+        <v>68</v>
+      </c>
+      <c r="F13" s="7" t="s">
+        <v>69</v>
+      </c>
+      <c r="G13" s="7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H13" s="7">
         <v>26</v>
       </c>
-      <c r="D13" s="7">
-        <v>21130</v>
-      </c>
-      <c r="E13" s="7" t="s">
-        <v>70</v>
-      </c>
-      <c r="F13" s="7" t="s">
+      <c r="I13" s="7">
+        <v>22483</v>
+      </c>
+      <c r="J13" s="7" t="s">
         <v>71</v>
       </c>
-      <c r="G13" s="7" t="s">
+      <c r="K13" s="7" t="s">
         <v>72</v>
       </c>
-      <c r="H13" s="7">
-        <v>25</v>
-      </c>
-      <c r="I13" s="7">
-        <v>16697</v>
-      </c>
-      <c r="J13" s="7" t="s">
+      <c r="L13" s="7" t="s">
         <v>73</v>
-      </c>
-      <c r="K13" s="7" t="s">
-        <v>74</v>
-      </c>
-      <c r="L13" s="7" t="s">
-        <v>75</v>
       </c>
       <c r="M13" s="7">
         <v>51</v>
       </c>
       <c r="N13" s="7">
-        <v>37827</v>
+        <v>39107</v>
       </c>
       <c r="O13" s="7" t="s">
+        <v>74</v>
+      </c>
+      <c r="P13" s="7" t="s">
+        <v>75</v>
+      </c>
+      <c r="Q13" s="7" t="s">
         <v>76</v>
-      </c>
-      <c r="P13" s="7" t="s">
-        <v>77</v>
-      </c>
-      <c r="Q13" s="7" t="s">
-        <v>78</v>
       </c>
     </row>
     <row r="14" spans="1:17" x14ac:dyDescent="0.3">
@@ -1402,49 +1396,49 @@
         <v>20</v>
       </c>
       <c r="C14" s="7">
+        <v>48</v>
+      </c>
+      <c r="D14" s="7">
+        <v>62561</v>
+      </c>
+      <c r="E14" s="7" t="s">
+        <v>77</v>
+      </c>
+      <c r="F14" s="7" t="s">
+        <v>78</v>
+      </c>
+      <c r="G14" s="7" t="s">
+        <v>79</v>
+      </c>
+      <c r="H14" s="7">
         <v>52</v>
       </c>
-      <c r="D14" s="7">
-        <v>41399</v>
-      </c>
-      <c r="E14" s="7" t="s">
-        <v>79</v>
-      </c>
-      <c r="F14" s="7" t="s">
+      <c r="I14" s="7">
+        <v>42717</v>
+      </c>
+      <c r="J14" s="7" t="s">
         <v>80</v>
       </c>
-      <c r="G14" s="7" t="s">
+      <c r="K14" s="7" t="s">
         <v>81</v>
       </c>
-      <c r="H14" s="7">
-        <v>48</v>
-      </c>
-      <c r="I14" s="7">
-        <v>41405</v>
-      </c>
-      <c r="J14" s="7" t="s">
+      <c r="L14" s="7" t="s">
         <v>82</v>
-      </c>
-      <c r="K14" s="7" t="s">
-        <v>83</v>
-      </c>
-      <c r="L14" s="7" t="s">
-        <v>84</v>
       </c>
       <c r="M14" s="7">
         <v>100</v>
       </c>
       <c r="N14" s="7">
-        <v>82804</v>
+        <v>105278</v>
       </c>
       <c r="O14" s="7" t="s">
+        <v>83</v>
+      </c>
+      <c r="P14" s="7" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q14" s="7" t="s">
         <v>85</v>
-      </c>
-      <c r="P14" s="7" t="s">
-        <v>86</v>
-      </c>
-      <c r="Q14" s="7" t="s">
-        <v>87</v>
       </c>
     </row>
     <row r="15" spans="1:17" x14ac:dyDescent="0.3">
@@ -1453,25 +1447,25 @@
         <v>3</v>
       </c>
       <c r="C15" s="7">
+        <v>73</v>
+      </c>
+      <c r="D15" s="7">
+        <v>79186</v>
+      </c>
+      <c r="E15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G15" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H15" s="7">
         <v>78</v>
       </c>
-      <c r="D15" s="7">
-        <v>62529</v>
-      </c>
-      <c r="E15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G15" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H15" s="7">
-        <v>73</v>
-      </c>
       <c r="I15" s="7">
-        <v>58102</v>
+        <v>65200</v>
       </c>
       <c r="J15" s="7" t="s">
         <v>30</v>
@@ -1486,7 +1480,7 @@
         <v>151</v>
       </c>
       <c r="N15" s="7">
-        <v>120631</v>
+        <v>144385</v>
       </c>
       <c r="O15" s="7" t="s">
         <v>30</v>
@@ -1506,49 +1500,49 @@
         <v>10</v>
       </c>
       <c r="C16" s="7">
+        <v>89</v>
+      </c>
+      <c r="D16" s="7">
+        <v>57005</v>
+      </c>
+      <c r="E16" s="7" t="s">
+        <v>86</v>
+      </c>
+      <c r="F16" s="7" t="s">
+        <v>87</v>
+      </c>
+      <c r="G16" s="7" t="s">
+        <v>88</v>
+      </c>
+      <c r="H16" s="7">
         <v>80</v>
       </c>
-      <c r="D16" s="7">
-        <v>55036</v>
-      </c>
-      <c r="E16" s="7" t="s">
-        <v>88</v>
-      </c>
-      <c r="F16" s="7" t="s">
+      <c r="I16" s="7">
+        <v>58569</v>
+      </c>
+      <c r="J16" s="7" t="s">
         <v>89</v>
       </c>
-      <c r="G16" s="7" t="s">
+      <c r="K16" s="7" t="s">
         <v>90</v>
       </c>
-      <c r="H16" s="7">
-        <v>89</v>
-      </c>
-      <c r="I16" s="7">
-        <v>57108</v>
-      </c>
-      <c r="J16" s="7" t="s">
+      <c r="L16" s="7" t="s">
         <v>91</v>
-      </c>
-      <c r="K16" s="7" t="s">
-        <v>92</v>
-      </c>
-      <c r="L16" s="7" t="s">
-        <v>93</v>
       </c>
       <c r="M16" s="7">
         <v>169</v>
       </c>
       <c r="N16" s="7">
-        <v>112143</v>
+        <v>115574</v>
       </c>
       <c r="O16" s="7" t="s">
+        <v>92</v>
+      </c>
+      <c r="P16" s="7" t="s">
+        <v>93</v>
+      </c>
+      <c r="Q16" s="7" t="s">
         <v>94</v>
-      </c>
-      <c r="P16" s="7" t="s">
-        <v>95</v>
-      </c>
-      <c r="Q16" s="7" t="s">
-        <v>96</v>
       </c>
     </row>
     <row r="17" spans="1:17" x14ac:dyDescent="0.3">
@@ -1557,49 +1551,49 @@
         <v>20</v>
       </c>
       <c r="C17" s="7">
+        <v>140</v>
+      </c>
+      <c r="D17" s="7">
+        <v>122347</v>
+      </c>
+      <c r="E17" s="7" t="s">
+        <v>95</v>
+      </c>
+      <c r="F17" s="7" t="s">
+        <v>96</v>
+      </c>
+      <c r="G17" s="7" t="s">
+        <v>97</v>
+      </c>
+      <c r="H17" s="7">
         <v>171</v>
       </c>
-      <c r="D17" s="7">
-        <v>118013</v>
-      </c>
-      <c r="E17" s="7" t="s">
-        <v>97</v>
-      </c>
-      <c r="F17" s="7" t="s">
+      <c r="I17" s="7">
+        <v>124140</v>
+      </c>
+      <c r="J17" s="7" t="s">
         <v>98</v>
       </c>
-      <c r="G17" s="7" t="s">
+      <c r="K17" s="7" t="s">
         <v>99</v>
       </c>
-      <c r="H17" s="7">
-        <v>140</v>
-      </c>
-      <c r="I17" s="7">
-        <v>98990</v>
-      </c>
-      <c r="J17" s="7" t="s">
+      <c r="L17" s="7" t="s">
         <v>100</v>
-      </c>
-      <c r="K17" s="7" t="s">
-        <v>101</v>
-      </c>
-      <c r="L17" s="7" t="s">
-        <v>102</v>
       </c>
       <c r="M17" s="7">
         <v>311</v>
       </c>
       <c r="N17" s="7">
-        <v>217003</v>
+        <v>246487</v>
       </c>
       <c r="O17" s="7" t="s">
+        <v>101</v>
+      </c>
+      <c r="P17" s="7" t="s">
+        <v>102</v>
+      </c>
+      <c r="Q17" s="7" t="s">
         <v>103</v>
-      </c>
-      <c r="P17" s="7" t="s">
-        <v>104</v>
-      </c>
-      <c r="Q17" s="7" t="s">
-        <v>105</v>
       </c>
     </row>
     <row r="18" spans="1:17" x14ac:dyDescent="0.3">
@@ -1608,25 +1602,25 @@
         <v>3</v>
       </c>
       <c r="C18" s="7">
+        <v>229</v>
+      </c>
+      <c r="D18" s="7">
+        <v>179352</v>
+      </c>
+      <c r="E18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="F18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="G18" s="7" t="s">
+        <v>30</v>
+      </c>
+      <c r="H18" s="7">
         <v>251</v>
       </c>
-      <c r="D18" s="7">
-        <v>173049</v>
-      </c>
-      <c r="E18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="F18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="G18" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="H18" s="7">
-        <v>229</v>
-      </c>
       <c r="I18" s="7">
-        <v>156098</v>
+        <v>182709</v>
       </c>
       <c r="J18" s="7" t="s">
         <v>30</v>
@@ -1641,7 +1635,7 @@
         <v>480</v>
       </c>
       <c r="N18" s="7">
-        <v>329146</v>
+        <v>362061</v>
       </c>
       <c r="O18" s="7" t="s">
         <v>30</v>
@@ -1655,7 +1649,7 @@
     </row>
     <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
     </row>
   </sheetData>
